--- a/StructureDefinition-ext-R5-ExtendedContactDetail.xlsx
+++ b/StructureDefinition-ext-R5-ExtendedContactDetail.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-ExtendedContactDetail.xlsx
+++ b/StructureDefinition-ext-R5-ExtendedContactDetail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="192">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -391,6 +391,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail.purpose</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -450,6 +453,9 @@
     <t>Extension.extension:name.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail.name</t>
+  </si>
+  <si>
     <t>Extension.extension:name.value[x]</t>
   </si>
   <si>
@@ -481,6 +487,9 @@
     <t>Extension.extension:telecom.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail.telecom</t>
+  </si>
+  <si>
     <t>Extension.extension:telecom.value[x]</t>
   </si>
   <si>
@@ -515,6 +524,9 @@
     <t>Extension.extension:address.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail.address</t>
+  </si>
+  <si>
     <t>Extension.extension:address.value[x]</t>
   </si>
   <si>
@@ -546,6 +558,9 @@
     <t>Extension.extension:organization.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail.organization</t>
+  </si>
+  <si>
     <t>Extension.extension:organization.value[x]</t>
   </si>
   <si>
@@ -578,6 +593,9 @@
   </si>
   <si>
     <t>Extension.extension:period.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ExtendedContactDetail.period</t>
   </si>
   <si>
     <t>Extension.extension:period.value[x]</t>
@@ -1744,7 +1762,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1786,7 +1804,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>87</v>
@@ -1801,15 +1819,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1832,7 +1850,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1867,13 +1885,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1891,7 +1909,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1903,21 +1921,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1942,16 +1960,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2020,7 +2038,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2123,7 +2141,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2228,7 +2246,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2271,7 +2289,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2313,7 +2331,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>87</v>
@@ -2328,15 +2346,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2359,16 +2377,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2418,7 +2436,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2430,21 +2448,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2469,14 +2487,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2545,7 +2563,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -2648,7 +2666,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -2753,7 +2771,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -2796,7 +2814,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2838,7 +2856,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>87</v>
@@ -2853,15 +2871,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2884,13 +2902,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2941,7 +2959,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2953,21 +2971,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2992,16 +3010,16 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3070,7 +3088,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3173,7 +3191,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3278,7 +3296,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -3321,7 +3339,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3363,7 +3381,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>87</v>
@@ -3378,15 +3396,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3409,16 +3427,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3468,7 +3486,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3480,21 +3498,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3519,14 +3537,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3595,7 +3613,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -3698,7 +3716,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -3803,7 +3821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -3846,7 +3864,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3888,7 +3906,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -3903,15 +3921,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3934,13 +3952,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3991,7 +4009,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4003,21 +4021,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4042,16 +4060,16 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4120,7 +4138,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -4223,7 +4241,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -4328,7 +4346,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -4371,7 +4389,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4413,7 +4431,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>87</v>
@@ -4428,15 +4446,15 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4459,16 +4477,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4518,7 +4536,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4530,18 +4548,18 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4623,7 +4641,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -4638,15 +4656,15 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4669,13 +4687,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4726,7 +4744,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -4738,10 +4756,10 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-ExtendedContactDetail.xlsx
+++ b/StructureDefinition-ext-R5-ExtendedContactDetail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="189">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -410,15 +410,6 @@
 </t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>The purpose for which an extended contact detail should be used.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contactentity-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -564,7 +555,7 @@
     <t>Extension.extension:organization.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -962,8 +953,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.28125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1885,43 +1876,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>122</v>
@@ -1929,13 +1920,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1960,16 +1951,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2038,7 +2029,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2141,7 +2132,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2246,7 +2237,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2289,7 +2280,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2351,7 +2342,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>124</v>
@@ -2377,16 +2368,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2436,7 +2427,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2448,7 +2439,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>122</v>
@@ -2456,13 +2447,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2487,14 +2478,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2563,7 +2554,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -2666,7 +2657,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -2771,7 +2762,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -2814,7 +2805,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2876,7 +2867,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>124</v>
@@ -2902,13 +2893,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2959,7 +2950,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2971,7 +2962,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>122</v>
@@ -2979,13 +2970,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3010,16 +3001,16 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3088,7 +3079,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3191,7 +3182,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3296,7 +3287,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -3339,7 +3330,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3401,7 +3392,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>124</v>
@@ -3427,16 +3418,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3486,7 +3477,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3498,7 +3489,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>122</v>
@@ -3506,13 +3497,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3537,14 +3528,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3613,7 +3604,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -3716,7 +3707,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -3821,7 +3812,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -3864,7 +3855,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3926,7 +3917,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>124</v>
@@ -3952,13 +3943,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4009,7 +4000,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4021,7 +4012,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>122</v>
@@ -4029,13 +4020,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4060,16 +4051,16 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4138,7 +4129,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -4241,7 +4232,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -4346,7 +4337,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -4389,7 +4380,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4451,7 +4442,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>124</v>
@@ -4477,16 +4468,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4536,7 +4527,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4548,7 +4539,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>122</v>
@@ -4661,10 +4652,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4687,13 +4678,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4744,7 +4735,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -4756,7 +4747,7 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>122</v>

--- a/StructureDefinition-ext-R5-ExtendedContactDetail.xlsx
+++ b/StructureDefinition-ext-R5-ExtendedContactDetail.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="192">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -410,6 +410,15 @@
 </t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>The purpose for which an extended contact detail should be used.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -555,7 +564,7 @@
     <t>Extension.extension:organization.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -953,8 +962,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1876,13 +1885,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1900,7 +1909,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1912,7 +1921,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>122</v>
@@ -1920,13 +1929,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1951,16 +1960,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2029,7 +2038,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2132,7 +2141,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2237,7 +2246,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2280,7 +2289,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2342,7 +2351,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>124</v>
@@ -2368,16 +2377,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2427,7 +2436,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2439,7 +2448,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>122</v>
@@ -2447,13 +2456,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2478,14 +2487,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2554,7 +2563,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -2657,7 +2666,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -2762,7 +2771,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -2805,7 +2814,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2867,7 +2876,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>124</v>
@@ -2893,13 +2902,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2950,7 +2959,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2962,7 +2971,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>122</v>
@@ -2970,13 +2979,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3001,16 +3010,16 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3079,7 +3088,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3182,7 +3191,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3287,7 +3296,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -3330,7 +3339,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3392,7 +3401,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>124</v>
@@ -3418,16 +3427,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3477,7 +3486,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3489,7 +3498,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>122</v>
@@ -3497,13 +3506,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3528,14 +3537,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3604,7 +3613,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -3707,7 +3716,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -3812,7 +3821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -3855,7 +3864,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3917,7 +3926,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>124</v>
@@ -3943,13 +3952,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4000,7 +4009,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4012,7 +4021,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>122</v>
@@ -4020,13 +4029,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4051,16 +4060,16 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4129,7 +4138,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -4232,7 +4241,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -4337,7 +4346,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -4380,7 +4389,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4442,7 +4451,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>124</v>
@@ -4468,16 +4477,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4527,7 +4536,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4539,7 +4548,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>122</v>
@@ -4652,10 +4661,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4678,13 +4687,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4735,7 +4744,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -4747,7 +4756,7 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>122</v>
